--- a/data/income_statement/2digits/size/18_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/18_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>18-Printing and reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>18-Printing and reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1348287.29651</v>
+        <v>1392715.32463</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1333014.5373</v>
+        <v>1400096.22205</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1593474.38759</v>
+        <v>1631621.63475</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1786474.38461</v>
+        <v>1850400.24025</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2260562.97641</v>
+        <v>2350089.48161</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2500078.74032</v>
+        <v>2594534.65665</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2626756.34731</v>
+        <v>2770634.57877</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2731594.12622</v>
+        <v>2828408.89695</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3164366.66231</v>
+        <v>3352466.91031</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4467373.79771</v>
+        <v>4371770.603259999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4938564.800059999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5169669.80402</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5330781.597</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1294708.0062</v>
+        <v>1335298.17273</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1289916.17083</v>
+        <v>1353785.95992</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1548677.3041</v>
+        <v>1582309.20644</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1739947.59547</v>
+        <v>1802081.15784</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2182872.08707</v>
+        <v>2266009.04856</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2399081.47914</v>
+        <v>2490881.76128</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2560738.70068</v>
+        <v>2689748.60984</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2646372.47921</v>
+        <v>2735883.20009</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3054494.12818</v>
+        <v>3233606.5929</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4226898.66269</v>
+        <v>4142920.44098</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4667235.60808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4871206.832389999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4952836.476</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>34979.57149</v>
+        <v>38020.59862999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>29963.4936</v>
+        <v>31722.68232</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>31330.32604</v>
+        <v>31436.82311</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>29765.68351</v>
+        <v>30265.37127</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>58819.07986</v>
+        <v>63260.74634000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>79161.03584</v>
+        <v>79810.56323</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>44243.6615</v>
+        <v>55238.68075</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>52601.35617</v>
+        <v>58619.90442</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>77594.62277000002</v>
+        <v>87936.72756</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>191467.62693</v>
+        <v>183325.18617</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>217980.67515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>248542.59187</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>319752.972</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18599.71882</v>
+        <v>19396.55327</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13134.87287</v>
+        <v>14587.57981</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13466.75745</v>
+        <v>17875.6052</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16761.10563</v>
+        <v>18053.71114</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>18871.80948</v>
+        <v>20819.68671</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21836.22534</v>
+        <v>23842.33214</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21773.98513</v>
+        <v>25647.28818</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>32620.29084</v>
+        <v>33905.79244</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>32277.91136</v>
+        <v>30923.58985</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>49007.50809</v>
+        <v>45524.97611</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>53348.51683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49920.37976</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>58192.149</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>39919.69705999999</v>
+        <v>41402.15232</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>27221.68861</v>
+        <v>27593.19538</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>28200.89135</v>
+        <v>30236.75163</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>38858.06556</v>
+        <v>38506.52072</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>42439.44489999999</v>
+        <v>44100.20812999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>42285.39803</v>
+        <v>42314.42138</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>44528.28291</v>
+        <v>45478.67826</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>44454.24708</v>
+        <v>44397.33283000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>49989.03634000001</v>
+        <v>57341.22487</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>86205.29941000001</v>
+        <v>83905.61452000002</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>87953.74756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>93502.76144</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>135978.675</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>32944.26386</v>
+        <v>34221.60042</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>21038.05471</v>
+        <v>21327.37551</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>19820.30509</v>
+        <v>21566.81045</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>29893.88237</v>
+        <v>29600.81164</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>28599.73706</v>
+        <v>30419.77976</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>26561.89249</v>
+        <v>26702.8997</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>30444.32236</v>
+        <v>31625.26779</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>30194.36984</v>
+        <v>30293.94872</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>34483.7043</v>
+        <v>39704.24898</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>56779.16213</v>
+        <v>54686.42086999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>47588.76169000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>52508.26413</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>76294.512</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6393.063419999999</v>
+        <v>6604.80718</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5472.37762</v>
+        <v>5576.57576</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7716.00765</v>
+        <v>7640.586199999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8028.829729999999</v>
+        <v>7937.29162</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12573.34148</v>
+        <v>12350.37417</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>13959.89144</v>
+        <v>13793.77813</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>13058.37228</v>
+        <v>12820.9195</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12880.50245</v>
+        <v>12740.67419</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>13637.57018</v>
+        <v>13085.48524</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>20168.83729</v>
+        <v>20048.18277</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>36864.03212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>37481.04449</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>56556.134</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>582.36978</v>
+        <v>575.7447199999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>711.2562800000001</v>
+        <v>689.24411</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>664.57861</v>
+        <v>1029.35498</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>935.3534599999999</v>
+        <v>968.41746</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1266.36636</v>
+        <v>1330.0542</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1763.6141</v>
+        <v>1817.74355</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1025.58827</v>
+        <v>1032.49097</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1379.37479</v>
+        <v>1362.70992</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1867.76186</v>
+        <v>4551.490650000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9257.29999</v>
+        <v>9171.010880000002</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3500.95375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3513.45282</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3128.029</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1308367.59945</v>
+        <v>1351313.17231</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1305792.84869</v>
+        <v>1372503.02667</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1565273.49624</v>
+        <v>1601384.88312</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1747616.31905</v>
+        <v>1811893.71953</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2218123.53151</v>
+        <v>2305989.27348</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2457793.34229</v>
+        <v>2552220.23527</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2582228.0644</v>
+        <v>2725155.90051</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2687139.87914</v>
+        <v>2784011.56412</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3114377.62597</v>
+        <v>3295125.68544</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4381168.4983</v>
+        <v>4287864.98874</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4850611.0525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5076167.04258</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5194802.922</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1074542.3949</v>
+        <v>1112307.80823</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1071810.7978</v>
+        <v>1137520.67257</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1287339.56038</v>
+        <v>1325639.5549</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1418185.59764</v>
+        <v>1473787.56039</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1805485.59688</v>
+        <v>1887247.35019</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2042483.81125</v>
+        <v>2114729.54234</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2121423.2577</v>
+        <v>2240526.90925</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2206584.20466</v>
+        <v>2294868.44039</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2579535.91303</v>
+        <v>2731104.03635</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3682689.87674</v>
+        <v>3621470.18177</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4042730.33469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4254710.45149</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4366095.423</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>608817.0268000001</v>
+        <v>650178.73878</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>549521.72239</v>
+        <v>610400.3274900001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>676771.92161</v>
+        <v>711438.75896</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>711923.71679</v>
+        <v>737964.4146200001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>933925.0273600001</v>
+        <v>993204.17668</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1128006.44375</v>
+        <v>1173858.76995</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1096272.69213</v>
+        <v>1182472.24596</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1151240.22892</v>
+        <v>1212057.74904</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1299341.08553</v>
+        <v>1400306.94235</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2039202.83044</v>
+        <v>1980845.82442</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2201598.11409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2296830.99968</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2400544.246</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>291319.57138</v>
+        <v>287684.30918</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>318185.96565</v>
+        <v>319180.50219</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>362981.8207</v>
+        <v>361022.12152</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>422846.54912</v>
+        <v>441466.37615</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>507910.92603</v>
+        <v>515152.4839000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>570387.31741</v>
+        <v>585633.9956799999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>664833.8715300001</v>
+        <v>695037.4299600001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>657521.2352699999</v>
+        <v>681195.949</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>819659.2440800001</v>
+        <v>857579.56612</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>983382.2600799999</v>
+        <v>983035.2263999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1164477.52886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1289578.92738</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1378348.948</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>172630.38962</v>
+        <v>172648.43975</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>202789.44618</v>
+        <v>206600.35185</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>245203.79958</v>
+        <v>250873.5654</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>281288.75519</v>
+        <v>291813.6516</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>362538.7104500001</v>
+        <v>376794.93662</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>341510.58619</v>
+        <v>352838.254</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>355959.29022</v>
+        <v>357754.91864</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>389142.60967</v>
+        <v>395350.63118</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>455958.33816</v>
+        <v>468086.50635</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>649850.64072</v>
+        <v>647745.82239</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>664128.8898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>657181.43382</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>573330.4570000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1775.4071</v>
+        <v>1796.32052</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1313.66358</v>
+        <v>1339.49104</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2382.01849</v>
+        <v>2305.10902</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2126.57654</v>
+        <v>2543.11802</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1110.93304</v>
+        <v>2095.75299</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2579.4639</v>
+        <v>2398.52271</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4357.40382</v>
+        <v>5262.31469</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>8680.130800000001</v>
+        <v>6264.11117</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4577.24526</v>
+        <v>5131.02153</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>10254.1455</v>
+        <v>9843.308560000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>12525.80194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11119.09061</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13871.772</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>233825.20455</v>
+        <v>239005.36408</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>233982.05089</v>
+        <v>234982.3541</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>277933.93586</v>
+        <v>275745.32822</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>329430.72141</v>
+        <v>338106.15914</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>412637.93463</v>
+        <v>418741.92329</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>415309.53104</v>
+        <v>437490.69293</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>460804.8067</v>
+        <v>484628.99126</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>480555.67448</v>
+        <v>489143.12373</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>534841.7129400001</v>
+        <v>564021.6490900001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>698478.62156</v>
+        <v>666394.8069699999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>807880.7178099999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>821456.5910899999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>828707.499</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>165481.23241</v>
+        <v>164767.69348</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>174981.70801</v>
+        <v>179273.62543</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>209698.69318</v>
+        <v>209307.84248</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>249288.85764</v>
+        <v>253871.72289</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>304366.90751</v>
+        <v>306858.44268</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>300994.70235</v>
+        <v>308881.1669600001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>343589.69438</v>
+        <v>349122.80514</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>363923.44762</v>
+        <v>367246.50329</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>393478.02556</v>
+        <v>415142.0487999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>479646.93378</v>
+        <v>454267.7865</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>559650.889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>556935.7330400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>549593.589</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1592.46887</v>
+        <v>1588.10087</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>649.70439</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>637.5819399999999</v>
+        <v>605.06297</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>662.2414199999999</v>
+        <v>666.7139100000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1254.84824</v>
+        <v>1263.16321</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1102.06384</v>
+        <v>1120.0821</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>707.31929</v>
+        <v>711.17324</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>896.9072199999999</v>
+        <v>1160.11576</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>355.7604</v>
+        <v>394.80899</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1474.87198</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2021.41754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2140.2006</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2144.78</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>33814.88911</v>
+        <v>37763.93136000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>36632.11837</v>
+        <v>37117.52551</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>44463.00958</v>
+        <v>46855.56054</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>56188.40229</v>
+        <v>60304.15470000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>62255.4168</v>
+        <v>62445.78025</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>64969.89104</v>
+        <v>69564.58045000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72189.35102</v>
+        <v>73032.42522</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>75035.77800000001</v>
+        <v>75955.34279000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>74377.5827</v>
+        <v>84560.64436000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>109821.43912</v>
+        <v>105387.55499</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>151395.78838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>148263.40458</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>141385.565</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>130073.87443</v>
+        <v>125415.66125</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>137699.88525</v>
+        <v>141506.39553</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>164598.10166</v>
+        <v>161847.21897</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>192438.21393</v>
+        <v>192900.85428</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>240856.64247</v>
+        <v>243149.49922</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>234922.74747</v>
+        <v>238196.50441</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>270693.02407</v>
+        <v>275379.20668</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>287990.7623999999</v>
+        <v>290131.04474</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>318744.68246</v>
+        <v>330186.59545</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>368350.62268</v>
+        <v>347405.35953</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>406233.68308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>406532.12786</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>406063.244</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>68343.97214</v>
+        <v>74237.6706</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>59000.34288</v>
+        <v>55708.72867</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>68235.24268000001</v>
+        <v>66437.48574</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>80141.86377</v>
+        <v>84234.43625</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>108271.02712</v>
+        <v>111883.48061</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>114314.82869</v>
+        <v>128609.52597</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>117215.11232</v>
+        <v>135506.18612</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>116632.22686</v>
+        <v>121896.62044</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>141363.68738</v>
+        <v>148879.60029</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>218831.68778</v>
+        <v>212127.02047</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>248229.82881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>264520.85805</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>279113.91</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19751.04152</v>
+        <v>21016.03834</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12348.58085</v>
+        <v>16735.88585</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14834.65502</v>
+        <v>12062.78567</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>13360.71366</v>
+        <v>14296.21884</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>19358.27391</v>
+        <v>18702.40441</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>24637.44149</v>
+        <v>23247.49652</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>25897.18489</v>
+        <v>25503.65687</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>24227.27146</v>
+        <v>23502.3431</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>23453.43003</v>
+        <v>27334.16068</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>68625.02585999999</v>
+        <v>60555.90649</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>57024.59591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>58435.5077</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>87825.633</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>1.73373</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.12435</v>
+        <v>0.44433</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>139.29053</v>
+        <v>18.1214</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>644.79889</v>
+        <v>509.97123</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>478.14122</v>
+        <v>395.21251</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1313.40321</v>
+        <v>25.46006</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1944.94414</v>
+        <v>77.72412</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3216.8136</v>
+        <v>65.65593</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>1209.8129</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>159.3474</v>
+        <v>159.2076</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>350.33009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>303.17702</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>444.464</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3.62055</v>
+        <v>77.76817999999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>1.16442</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2615.29811</v>
+        <v>2215.98799</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1565.83369</v>
+        <v>1824.3326</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1800.60175</v>
+        <v>1671.63277</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2439.90715</v>
+        <v>2682.90912</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3137.78832</v>
+        <v>3356.62623</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3983.15512</v>
+        <v>3145.39822</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3349.93908</v>
+        <v>3453.2855</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3927.1479</v>
+        <v>4615.0327</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4428.33325</v>
+        <v>4820.331069999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7739.718</v>
+        <v>6579.46268</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15700.56149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>12886.54514</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12006.27</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7.836799999999999</v>
+        <v>7.568</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>185.95612</v>
+        <v>186.52667</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>186.14457</v>
+        <v>266.82243</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>127.65799</v>
+        <v>59.03059</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>157.15582</v>
+        <v>200.45515</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>236.92611</v>
+        <v>328.80736</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>191.19966</v>
+        <v>92.51596000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>132.43289</v>
+        <v>138.41656</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>67.93635</v>
+        <v>45.15252</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>191.88612</v>
+        <v>196.10722</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>179.90091</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2953.872</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2275.0731</v>
+        <v>1724.83067</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1565.28975</v>
+        <v>1480.1938</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2223.80958</v>
+        <v>971.75212</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1406.77472</v>
+        <v>369.87652</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1371.73736</v>
+        <v>295.37622</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1546.61474</v>
+        <v>210.55651</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2845.57461</v>
+        <v>1654.04844</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2863.93369</v>
+        <v>1530.28309</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2022.89429</v>
+        <v>640.4933599999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2032.82114</v>
+        <v>2048.47892</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2095.1769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>625.3309</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>821.39</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1090.85598</v>
+        <v>1103.15338</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>114.83123</v>
+        <v>95.61842999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>372.90283</v>
+        <v>363.92166</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>340.35426</v>
+        <v>323.22571</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>198.02674</v>
+        <v>831.0205100000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>752.31636</v>
+        <v>1100.63009</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>561.8161</v>
+        <v>584.81974</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>378.38853</v>
+        <v>408.37798</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>495.11706</v>
+        <v>364.78226</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1695.73624</v>
+        <v>1077.38877</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1341.88726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1274.15583</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1751.248</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7664.242</v>
+        <v>8305.68526</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5176.499260000001</v>
+        <v>8373.917109999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6494.07547</v>
+        <v>5932.63906</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4164.65661</v>
+        <v>5725.204829999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6217.09133</v>
+        <v>6632.69186</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6926.421840000001</v>
+        <v>7025.149590000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8160.79695</v>
+        <v>9939.288799999998</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5378.021269999999</v>
+        <v>6443.01018</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5359.37846</v>
+        <v>8491.18498</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>41822.50694000001</v>
+        <v>35889.5854</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>27000.59881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>25453.87068</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>52484.767</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>31.25</v>
@@ -2060,7 +2106,7 @@
         <v>106.97889</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>149.32137</v>
+        <v>75.40291000000001</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>106.85906</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>485.56523</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>328.729</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>162.01241</v>
@@ -2087,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>8.25526</v>
+        <v>9.41615</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>31.67309</v>
+        <v>0.05045</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>33.36099</v>
+        <v>2.11204</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0.0009</v>
@@ -2105,7 +2156,7 @@
         <v>0.00121</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>7.82259</v>
+        <v>0.65738</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>7.288399999999999</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5904.473120000001</v>
+        <v>7463.8169</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3699.3259</v>
+        <v>4659.98473</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3552.87101</v>
+        <v>2771.77606</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4142.7063</v>
+        <v>4563.76574</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7759.87098</v>
+        <v>6983.80874</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9771.624320000001</v>
+        <v>11304.5149</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8693.28817</v>
+        <v>9626.266589999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8223.67331</v>
+        <v>10194.70639</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9833.087680000001</v>
+        <v>11732.69876</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14889.11688</v>
+        <v>14511.78276</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9870.575220000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17226.96199</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17034.893</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>16507.80371</v>
+        <v>16774.31175</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9943.718849999999</v>
+        <v>17151.89264</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>12998.10206</v>
+        <v>15383.56</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10204.30535</v>
+        <v>11743.34473</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>15613.38328</v>
+        <v>20211.98216</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>15329.16011</v>
+        <v>16952.09441</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>21048.2318</v>
+        <v>24094.20668</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16313.25891</v>
+        <v>20828.88306</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15129.90411</v>
+        <v>30139.71819</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>59351.05828</v>
+        <v>50947.35678</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>46823.58883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>47024.12492</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>54203.377</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>989.9702600000001</v>
+        <v>1124.41269</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1690.71217</v>
+        <v>1858.34585</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>767.20727</v>
+        <v>904.2233199999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1420.01504</v>
+        <v>1747.85087</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1062.3186</v>
+        <v>1064.37068</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1083.5412</v>
+        <v>1074.42227</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>940.70935</v>
+        <v>1351.92766</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1175.53994</v>
+        <v>1275.67771</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1005.26192</v>
+        <v>1038.51144</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2221.26668</v>
+        <v>2178.48369</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3232.59498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3191.42071</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2983.357</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4935.2818</v>
+        <v>4082.04285</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2131.20509</v>
+        <v>1797.15691</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1441.78315</v>
+        <v>1439.1372</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2154.48929</v>
+        <v>2651.34348</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3672.81114</v>
+        <v>3485.74471</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2538.18087</v>
+        <v>2397.22713</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4934.40268</v>
+        <v>6061.48749</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5911.29403</v>
+        <v>6111.8279</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2537.35277</v>
+        <v>12761.10717</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3200.66923</v>
+        <v>3156.22892</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7327.04316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7278.44316</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1798.695</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>96.1343</v>
+        <v>84.77552</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>21.31073</v>
@@ -2288,13 +2364,13 @@
         <v>62.3761</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>36.0255</v>
+        <v>640.75478</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>103.80121</v>
+        <v>93.75121</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>31.11287</v>
+        <v>36.40519</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>8.895</v>
@@ -2303,61 +2379,71 @@
         <v>2.82592</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>717.5254200000001</v>
+        <v>716.80825</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>145.4153</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>291.398</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8629.443939999999</v>
+        <v>9363.832950000002</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4762.92408</v>
+        <v>12144.58175</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8791.12219</v>
+        <v>10552.36715</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4426.722839999999</v>
+        <v>5371.311050000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8983.64443</v>
+        <v>13278.89067</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7990.55515</v>
+        <v>9185.116679999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11759.24806</v>
+        <v>12955.37478</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6411.02579</v>
+        <v>9593.641730000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7522.13915</v>
+        <v>12614.93273</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>45825.91144999999</v>
+        <v>38861.70206</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28719.34869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28256.03141</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>44488.988</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>14.85991</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>34.8992</v>
+        <v>34.86552</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>55.5396</v>
@@ -2372,7 +2458,7 @@
         <v>81.94885000000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>48.82648</v>
+        <v>48.57486</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>26.54745</v>
@@ -2386,32 +2472,37 @@
       <c r="M41" s="48" t="n">
         <v>462.39458</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>346.505</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>4.89499</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>2.94335</v>
+        <v>46.84215</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>32.16883</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>84.41844999999999</v>
+        <v>0.14985</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0.01822</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>1.51608</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>2e-05</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1837.21851</v>
+        <v>2119.24774</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1302.66758</v>
+        <v>1295.63188</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1700.27641</v>
+        <v>2146.22049</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2086.4507</v>
+        <v>1888.38062</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1608.71486</v>
+        <v>1576.62117</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3531.11461</v>
+        <v>4119.61005</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3332.41628</v>
+        <v>3640.43662</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2779.95668</v>
+        <v>3812.29325</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4019.26689</v>
+        <v>3679.28347</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7249.78708</v>
+        <v>5898.23544</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6936.79212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7690.41976</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4294.434</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>30463.5849</v>
+        <v>33903.61476999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>20282.39152</v>
+        <v>23829.83035</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>23536.89638</v>
+        <v>24747.67237</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>29146.02265</v>
+        <v>35061.80204</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>35381.6915</v>
+        <v>40681.89286</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>40764.43283</v>
+        <v>45480.76243</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>38867.24094</v>
+        <v>47592.07636</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>40999.69589</v>
+        <v>47587.85045000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>44798.66596</v>
+        <v>56415.41015</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>104467.74939</v>
+        <v>99428.11320000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>107024.04598</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>101125.20628</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>87790.603</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>29257.60039</v>
+        <v>31995.37246</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>19629.83725</v>
+        <v>22829.08744</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>23249.5788</v>
+        <v>24403.17116</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>28498.35172</v>
+        <v>34225.59402</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>33870.84582</v>
+        <v>39248.05352</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>38792.93518</v>
+        <v>43515.36721</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>36804.69574</v>
+        <v>45442.39651</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>40064.19328</v>
+        <v>46450.01375</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>43129.48069</v>
+        <v>54393.27795</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>100943.57761</v>
+        <v>96047.42598999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>102012.58354</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>96134.58560000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>83171.421</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1205.98451</v>
+        <v>1908.24231</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>652.55427</v>
+        <v>1000.74291</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>287.31758</v>
+        <v>344.50121</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>647.67093</v>
+        <v>836.20802</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1510.84568</v>
+        <v>1433.83934</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1971.49765</v>
+        <v>1965.39522</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2062.5452</v>
+        <v>2149.67985</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>935.50261</v>
+        <v>1137.8367</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1669.18527</v>
+        <v>2022.1322</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3524.17178</v>
+        <v>3380.68721</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5011.46244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4990.62068</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4619.182</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>41123.62505</v>
+        <v>44575.78242</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>41122.81336</v>
+        <v>31462.89153</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>46534.89926</v>
+        <v>38369.03904</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>54152.24943</v>
+        <v>51725.50832</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>76634.22625000001</v>
+        <v>69692.00999999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>82858.67724</v>
+        <v>89424.16565000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>83196.82446999999</v>
+        <v>89323.55995000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>83546.54351999999</v>
+        <v>76982.23003000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>104888.54734</v>
+        <v>89658.63262999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>123637.90597</v>
+        <v>122307.45698</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>151406.78991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>174807.03455</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>224945.563</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7810.61859</v>
+        <v>8081.17171</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14531.96329</v>
+        <v>10631.01656</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8800.732440000002</v>
+        <v>8634.913500000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19195.80174</v>
+        <v>17740.2107</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13676.76745</v>
+        <v>11377.18716</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>19730.40281</v>
+        <v>19756.15504</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18400.14753</v>
+        <v>20616.17191</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>26079.35576</v>
+        <v>32751.64872</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>28520.67305</v>
+        <v>34889.63402</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23219.91098</v>
+        <v>21163.39181</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>42596.11049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>28130.7347</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>33413.411</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>67.35105</v>
+        <v>85.61969999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>119.45304</v>
+        <v>84.45303999999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>54.57384</v>
+        <v>112.2575</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>249.32584</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>94.54492</v>
+        <v>312.71027</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>117.85855</v>
+        <v>90.20411</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>12.25616</v>
+        <v>12.25132</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>509.42692</v>
+        <v>207.52296</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>733.4345500000001</v>
+        <v>308.11882</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>116.03614</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>357.45869</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>361.2073</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>117.361</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7743.26754</v>
+        <v>7995.552009999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14412.51025</v>
+        <v>10546.56352</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8746.158599999999</v>
+        <v>8522.656000000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>18946.4759</v>
+        <v>17490.88486</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13582.22253</v>
+        <v>11064.47689</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>19612.54426</v>
+        <v>19665.95093</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18387.89137</v>
+        <v>20603.92059</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>25569.92884</v>
+        <v>32544.12576</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>27787.2385</v>
+        <v>34581.5152</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>23103.87484</v>
+        <v>21047.35567</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>42238.6518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>27769.5274</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>33296.05</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13943.62481</v>
+        <v>12688.09257</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>18062.22229</v>
+        <v>12548.63699</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>63131.24286999999</v>
+        <v>53667.58532</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>14351.44112</v>
+        <v>11843.53012</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11657.92467</v>
+        <v>10882.04312</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>50247.13273</v>
+        <v>73154.93001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19077.9721</v>
+        <v>17939.76792</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>63428.40029</v>
+        <v>63255.53064</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>18997.50085</v>
+        <v>22880.86793</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>64654.27144</v>
+        <v>57662.06026999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>34430.66106000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32724.40768</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25635.739</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>663.53284</v>
+        <v>579.20332</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>475.46473</v>
+        <v>164.52246</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>34.65148000000001</v>
+        <v>151.94728</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>17.97174</v>
+        <v>42.65371</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>606.6804000000001</v>
+        <v>204.13297</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>652.14342</v>
+        <v>259.5863</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1020.89611</v>
+        <v>1132.21557</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1055.17602</v>
+        <v>1027.8148</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1159.86759</v>
+        <v>736.04603</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1811.546</v>
+        <v>1810.526</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1278.80056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1277.78056</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2689.749</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>759.683</v>
+        <v>612.11484</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>540.67626</v>
+        <v>773.31588</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1377.71012</v>
+        <v>1612.62561</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>269.28565</v>
+        <v>268.79518</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>381.02379</v>
+        <v>442.95419</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>527.2602899999999</v>
+        <v>654.1856</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>139.56945</v>
+        <v>250.99663</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>855.70335</v>
+        <v>288.78579</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>237.89274</v>
+        <v>98.58384</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1752.85609</v>
+        <v>1648.53804</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>520.43895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>843.34578</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>488.939</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12520.40897</v>
+        <v>11496.77441</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>17046.0813</v>
+        <v>11610.79865</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>61718.88127</v>
+        <v>51903.01243</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>14064.18373</v>
+        <v>11532.08123</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10670.22048</v>
+        <v>10234.95596</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>49067.72902000001</v>
+        <v>72241.15811</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17917.50654</v>
+        <v>16556.55572</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>61517.52092</v>
+        <v>61938.93005</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17599.74052</v>
+        <v>22046.23806</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>61089.86935</v>
+        <v>54202.99623</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>32631.42155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>30603.28134</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>22457.051</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>34990.61883</v>
+        <v>39968.86156</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>37592.55436</v>
+        <v>29545.2711</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7795.61117</v>
+        <v>-6663.632779999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>58996.61005</v>
+        <v>57622.18890000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>78653.06903</v>
+        <v>70187.15404000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>52341.94732</v>
+        <v>36025.39068</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>82518.9999</v>
+        <v>91999.96394</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>46197.49899</v>
+        <v>46478.34811</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>114411.71954</v>
+        <v>101667.39872</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>82203.54551000001</v>
+        <v>85808.78852000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>159572.23934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>170213.36157</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>232723.235</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9647.330529999999</v>
+        <v>9766.60233</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>11105.27692</v>
+        <v>10888.48368</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12281.01555</v>
+        <v>11889.53501</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>13061.29529</v>
+        <v>13453.55854</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16350.18605</v>
+        <v>15722.74685</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16713.48396</v>
+        <v>18154.52092</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19542.20482</v>
+        <v>20561.94041</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>20994.93102</v>
+        <v>21315.64344</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>23881.67643</v>
+        <v>25218.02337</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>32815.57411</v>
+        <v>30490.12674</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>43292.31625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>42994.26657</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>51703.232</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>25343.2883</v>
+        <v>30202.25923</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>26487.27744</v>
+        <v>18656.78742</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-20076.62672</v>
+        <v>-18553.16779</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>45935.31476</v>
+        <v>44168.63036000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>62302.88297999999</v>
+        <v>54464.40719</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>35628.46336</v>
+        <v>17870.86976</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>62976.79508</v>
+        <v>71438.02353000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>25202.56797</v>
+        <v>25162.70467</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>90530.04311</v>
+        <v>76449.37534999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>49387.97139999999</v>
+        <v>55318.66178</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>116279.92309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>127219.095</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>181020.003</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>880</v>
+        <v>728</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>917</v>
+        <v>756</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>965</v>
+        <v>805</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1013</v>
+        <v>845</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1067</v>
+        <v>881</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1118</v>
+        <v>911</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1185</v>
+        <v>959</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1240</v>
+        <v>972</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1335</v>
+        <v>1037</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>859</v>
+        <v>728</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>744</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>